--- a/src/Tests/Templates/Supagreements.xlsx
+++ b/src/Tests/Templates/Supagreements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\src\Tests\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectumDev\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Доп.Соглашения" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
   <si>
     <t>Содержание</t>
   </si>
@@ -174,15 +174,6 @@
   </si>
   <si>
     <t>17.05.2023</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>595</t>
   </si>
   <si>
     <t>Дело</t>
@@ -400,7 +391,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -456,10 +447,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -552,8 +539,16 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -911,101 +906,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.86328125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="20.3984375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="5" customWidth="1"/>
-    <col min="20" max="22" width="13.3984375" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="9.1328125" style="5"/>
+    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
+    <col min="20" max="22" width="13.42578125" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>54</v>
+      <c r="U1" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="W1" t="s">
         <v>28</v>
@@ -1017,20 +1012,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>595</v>
+      </c>
+      <c r="B2" s="24">
         <v>45566</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="25">
-        <v>45524</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="48">
+        <v>569</v>
+      </c>
+      <c r="D2" s="24">
+        <v>40410</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1048,13 +1043,13 @@
       <c r="J2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>45566</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="26">
         <v>45596</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="27">
         <v>1000</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1069,15 +1064,15 @@
         <v>40</v>
       </c>
       <c r="S2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>41</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="38">
+        <v>52</v>
+      </c>
+      <c r="V2" s="37">
         <v>40452</v>
       </c>
       <c r="W2" s="18" t="s">
@@ -1091,27 +1086,27 @@
       </c>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="39">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>45567</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="C3" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="24">
         <v>45525</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>57</v>
+      <c r="G3" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>46</v>
@@ -1122,64 +1117,64 @@
       <c r="J3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="39">
         <v>45518</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <v>45597</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="43">
         <v>1331113.1599999999</v>
       </c>
-      <c r="N3" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="43" t="s">
+      <c r="N3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="42" t="s">
-        <v>59</v>
+      <c r="P3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="S3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>41</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="38">
+        <v>52</v>
+      </c>
+      <c r="V3" s="37">
         <v>40453</v>
       </c>
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="24">
         <v>45568</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="25">
+      <c r="C4" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="24">
         <v>45526</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>57</v>
+      <c r="G4" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>46</v>
@@ -1190,64 +1185,64 @@
       <c r="J4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="39">
         <v>45518</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="26">
         <v>45598</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="43">
         <v>655354.30000000005</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="42" t="s">
-        <v>61</v>
-      </c>
       <c r="S4" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" s="18" t="s">
         <v>41</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="38">
+        <v>52</v>
+      </c>
+      <c r="V4" s="37">
         <v>40454</v>
       </c>
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:27" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="39">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
         <v>1</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>45569</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="24">
         <v>45527</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>57</v>
+      <c r="G5" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>46</v>
@@ -1258,186 +1253,186 @@
       <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>45518</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="26">
         <v>45599</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="43">
         <v>1251746.3600000001</v>
       </c>
-      <c r="N5" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="43" t="s">
+      <c r="N5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="42" t="s">
-        <v>62</v>
+      <c r="P5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="S5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" s="18" t="s">
         <v>41</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="38">
+        <v>52</v>
+      </c>
+      <c r="V5" s="37">
         <v>40455</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V6" s="46"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-    </row>
-    <row r="7" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V7" s="46"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-    </row>
-    <row r="8" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V8" s="46"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-    </row>
-    <row r="9" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V9" s="46"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-    </row>
-    <row r="10" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V10" s="46"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-    </row>
-    <row r="11" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V11" s="46"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-    </row>
-    <row r="12" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V12" s="46"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V13" s="46"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-    </row>
-    <row r="14" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V14" s="46"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V15" s="46"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-    </row>
-    <row r="16" spans="1:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V16" s="46"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-    </row>
-    <row r="17" spans="22:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V17" s="46"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-    </row>
-    <row r="18" spans="22:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V18" s="46"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-    </row>
-    <row r="19" spans="22:27" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="V19" s="46"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-    </row>
-    <row r="20" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V6" s="45"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V7" s="45"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V8" s="45"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V9" s="45"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V10" s="45"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V11" s="45"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V12" s="45"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V13" s="45"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V14" s="45"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V15" s="45"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V16" s="45"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V17" s="45"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V18" s="45"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V19" s="45"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V20" s="5"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-    </row>
-    <row r="21" spans="22:27" x14ac:dyDescent="0.35">
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+    </row>
+    <row r="21" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V23" s="5"/>
     </row>
-    <row r="24" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="22:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="22:27" x14ac:dyDescent="0.2">
       <c r="V29" s="5"/>
     </row>
   </sheetData>
@@ -1454,81 +1449,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1328125" style="5"/>
+    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="17" t="s">
@@ -1542,18 +1537,20 @@
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="25">
-        <v>45524</v>
-      </c>
-      <c r="E2" s="34"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="49">
+        <v>752</v>
+      </c>
+      <c r="B2" s="50">
+        <v>45525</v>
+      </c>
+      <c r="C2" s="48">
+        <v>569</v>
+      </c>
+      <c r="D2" s="24">
+        <v>40410</v>
+      </c>
+      <c r="E2" s="33"/>
       <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1569,13 +1566,11 @@
       <c r="J2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="48">
-        <v>4</v>
-      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>47</v>
@@ -1590,7 +1585,7 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="L3" s="9"/>
     </row>
@@ -1610,14 +1605,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
-    <col min="3" max="3" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -1639,7 +1634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>4</v>
       </c>
@@ -1650,7 +1645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>5</v>
       </c>
@@ -1661,7 +1656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>7</v>
       </c>
@@ -1672,7 +1667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>14</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>15</v>
       </c>
